--- a/classification/droptc/sentence/bert-base-uncased/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/70681460/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5572996139526367</v>
+        <v>0.9650818109512329</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5759198069572449</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8049326539039612</v>
+        <v>0.5949438214302063</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3662691414356232</v>
+        <v>0.6362072825431824</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6378893852233887</v>
+        <v>0.9934811592102051</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8404825925827026</v>
+        <v>0.9017724990844727</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7541019916534424</v>
+        <v>0.9901083707809448</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6082128882408142</v>
+        <v>0.9947136044502258</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5539098978042603</v>
+        <v>0.9901083707809448</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3649965822696686</v>
+        <v>0.9469692707061768</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6411926746368408</v>
+        <v>0.9670777916908264</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9641459584236145</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.631219208240509</v>
+        <v>0.9566649198532104</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7084541320800781</v>
+        <v>0.6599031090736389</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3473041355609894</v>
+        <v>0.8918400406837463</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5838325619697571</v>
+        <v>0.9692808389663696</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6887040734291077</v>
+        <v>0.5487726330757141</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3972648084163666</v>
+        <v>0.9934906959533691</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4096468091011047</v>
+        <v>0.9238852262496948</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7513277530670166</v>
+        <v>0.9874881505966187</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7168267965316772</v>
+        <v>0.9810913801193237</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8008802533149719</v>
+        <v>0.9622703194618225</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7896695137023926</v>
+        <v>0.938562273979187</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7659464478492737</v>
+        <v>0.5041398406028748</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8305611610412598</v>
+        <v>0.2771313190460205</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7183810472488403</v>
+        <v>0.852370023727417</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3868145942687988</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8392122387886047</v>
+        <v>0.7822633385658264</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9188004732131958</v>
+        <v>0.9471855759620667</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6795210242271423</v>
+        <v>0.9483745694160461</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7452185750007629</v>
+        <v>0.6413422822952271</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4487373530864716</v>
+        <v>0.5740508437156677</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6511310935020447</v>
+        <v>0.7519699335098267</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4378355741500854</v>
+        <v>0.9440851211547852</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6287868022918701</v>
+        <v>0.9603984355926514</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9380141496658325</v>
+        <v>0.8834459185600281</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4627045691013336</v>
+        <v>0.8441664576530457</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8811879754066467</v>
+        <v>0.7791597247123718</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3335369229316711</v>
+        <v>0.3965891897678375</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8343016505241394</v>
+        <v>0.9752052426338196</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6966346502304077</v>
+        <v>0.7813006639480591</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4752891361713409</v>
+        <v>0.6985034346580505</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9102373123168945</v>
+        <v>0.9740835428237915</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5404382348060608</v>
+        <v>0.8286193013191223</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6817763447761536</v>
+        <v>0.8526586890220642</v>
       </c>
     </row>
     <row r="47">
@@ -1743,14 +1743,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7192351222038269</v>
+        <v>0.4175171256065369</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7569804787635803</v>
+        <v>0.9108108282089233</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3044884502887726</v>
+        <v>0.9966868758201599</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6314957737922668</v>
+        <v>0.8692287802696228</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5847933292388916</v>
+        <v>0.2951071262359619</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4110227227210999</v>
+        <v>0.9106795191764832</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4598283469676971</v>
+        <v>0.8692287802696228</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.916085422039032</v>
+        <v>0.5061687827110291</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7154307961463928</v>
+        <v>0.9895437955856323</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4789913892745972</v>
+        <v>0.9986294507980347</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6618019938468933</v>
+        <v>0.9989573955535889</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2743216753005981</v>
+        <v>0.8476735353469849</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5991873145103455</v>
+        <v>0.9173001646995544</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9682461619377136</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3446225523948669</v>
+        <v>0.8911676406860352</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7942111492156982</v>
+        <v>0.9935251474380493</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7349547147750854</v>
+        <v>0.6702768802642822</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7041766047477722</v>
+        <v>0.3951821327209473</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3473041355609894</v>
+        <v>0.8600667119026184</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.834709644317627</v>
+        <v>0.8600667119026184</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7852095365524292</v>
+        <v>0.5091084837913513</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7402628660202026</v>
+        <v>0.8600667119026184</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7166326642036438</v>
+        <v>0.5839670300483704</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4737013280391693</v>
+        <v>0.971637487411499</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4471608102321625</v>
+        <v>0.4792190790176392</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6991747617721558</v>
+        <v>0.974346935749054</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5921919345855713</v>
+        <v>0.9705750346183777</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.942074179649353</v>
+        <v>0.8909439444541931</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6257631778717041</v>
+        <v>0.5364419221878052</v>
       </c>
     </row>
     <row r="76">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3129462599754333</v>
+        <v>0.9705750346183777</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6414998769760132</v>
+        <v>0.9485176801681519</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6869165897369385</v>
+        <v>0.9705750346183777</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8539359569549561</v>
+        <v>0.9906080961227417</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8053211569786072</v>
+        <v>0.9143370389938354</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.815372109413147</v>
+        <v>0.6503334045410156</v>
       </c>
     </row>
     <row r="82">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3335565328598022</v>
+        <v>0.9143370389938354</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6364213228225708</v>
+        <v>0.9531090259552002</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7558783292770386</v>
+        <v>0.9531090259552002</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8784850239753723</v>
+        <v>0.9928567409515381</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5553761720657349</v>
+        <v>0.7726815938949585</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5446329116821289</v>
+        <v>0.822721004486084</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5282922387123108</v>
+        <v>0.8811606764793396</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6412331461906433</v>
+        <v>0.9859799742698669</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3649965822696686</v>
+        <v>0.9644021391868591</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9679553508758545</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8322001099586487</v>
+        <v>0.9716299772262573</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5843071341514587</v>
+        <v>0.9762283563613892</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7246798276901245</v>
+        <v>0.9799001812934875</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3900771737098694</v>
+        <v>0.9732902050018311</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7278753519058228</v>
+        <v>0.5284403562545776</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4686496257781982</v>
+        <v>0.3754274547100067</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8811879754066467</v>
+        <v>0.9838146567344666</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7107812166213989</v>
+        <v>0.3184346854686737</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7259779572486877</v>
+        <v>0.9439395666122437</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6900058388710022</v>
+        <v>0.9587812423706055</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5030068159103394</v>
+        <v>0.3070666193962097</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6781262755393982</v>
+        <v>0.9842283725738525</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6140455603599548</v>
+        <v>0.9448924660682678</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7955422401428223</v>
+        <v>0.9475521445274353</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.321119487285614</v>
+        <v>0.5288090109825134</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5861425399780273</v>
+        <v>0.479832261800766</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8605198264122009</v>
+        <v>0.6739957928657532</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4245046675205231</v>
+        <v>0.7108212113380432</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7272929549217224</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4259921312332153</v>
+        <v>0.5100910067558289</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7269712686538696</v>
+        <v>0.4962982535362244</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7910099029541016</v>
+        <v>0.9032856822013855</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7052709460258484</v>
+        <v>0.7944473624229431</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8117660284042358</v>
+        <v>0.441329151391983</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7465561628341675</v>
+        <v>0.8281683921813965</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9380141496658325</v>
+        <v>0.957404613494873</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5363743901252747</v>
+        <v>0.4661987721920013</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9436147809028625</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6321532726287842</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5573751926422119</v>
+        <v>0.9386789798736572</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4627045691013336</v>
+        <v>0.9941807389259338</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6355348825454712</v>
+        <v>0.9386789798736572</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4074895679950714</v>
+        <v>0.9941807389259338</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.76479172706604</v>
+        <v>0.9386789798736572</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6188133955001831</v>
+        <v>0.9989558458328247</v>
       </c>
     </row>
     <row r="127">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6006189584732056</v>
+        <v>0.6507951021194458</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7051866054534912</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.756838321685791</v>
+        <v>0.966401994228363</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8953008055686951</v>
+        <v>0.920178234577179</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7200384140014648</v>
+        <v>0.9929855465888977</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4437556564807892</v>
+        <v>0.442108541727066</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3662691414356232</v>
+        <v>0.9947304725646973</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.916085422039032</v>
+        <v>0.4957354962825775</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.875640869140625</v>
+        <v>0.8807395100593567</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.916085422039032</v>
+        <v>0.5055173635482788</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4177441000938416</v>
+        <v>0.9964703321456909</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5845363736152649</v>
+        <v>0.9464986324310303</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.781057596206665</v>
+        <v>0.9966585636138916</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4627045691013336</v>
+        <v>0.966340184211731</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.580502450466156</v>
+        <v>0.8583438992500305</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5395827889442444</v>
+        <v>0.6666011810302734</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7258282899856567</v>
+        <v>0.9884074330329895</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.819155216217041</v>
+        <v>0.6666011810302734</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3900771737098694</v>
+        <v>0.9754133224487305</v>
       </c>
     </row>
     <row r="147">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7835018038749695</v>
+        <v>0.5839670300483704</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6023385524749756</v>
+        <v>0.9688828587532043</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6355348825454712</v>
+        <v>0.5913873314857483</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4103138148784637</v>
+        <v>0.3804320693016052</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.704833447933197</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4145733118057251</v>
+        <v>0.5860404968261719</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6487730145454407</v>
+        <v>0.9913520812988281</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6812681555747986</v>
+        <v>0.7916827797889709</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6465693712234497</v>
+        <v>0.9823468923568726</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9074839949607849</v>
+        <v>0.7114352583885193</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3335369229316711</v>
+        <v>0.99562668800354</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.916085422039032</v>
+        <v>0.9540499448776245</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.7760841250419617</v>
+        <v>0.9984006285667419</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6355348825454712</v>
+        <v>0.8153342604637146</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4701653718948364</v>
+        <v>0.9226517677307129</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4378355741500854</v>
+        <v>0.8452811241149902</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6307673454284668</v>
+        <v>0.419664740562439</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7513277530670166</v>
+        <v>0.7755283713340759</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3473041355609894</v>
+        <v>0.8961665034294128</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9618036150932312</v>
+        <v>0.9003764986991882</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4381885528564453</v>
+        <v>0.4221695959568024</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3289446830749512</v>
+        <v>0.3995630741119385</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4360813498497009</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7378104329109192</v>
+        <v>0.4221695959568024</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9254816174507141</v>
+        <v>0.4560047686100006</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9431449174880981</v>
+        <v>0.9966717958450317</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4983090460300446</v>
+        <v>0.9470981359481812</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8515202403068542</v>
+        <v>0.9656418561935425</v>
       </c>
     </row>
     <row r="175">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.446492999792099</v>
+        <v>0.9470981359481812</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8031006455421448</v>
+        <v>0.9470981359481812</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5368666648864746</v>
+        <v>0.9656418561935425</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6566407680511475</v>
+        <v>0.9976551532745361</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6812636852264404</v>
+        <v>0.9972219467163086</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7097562551498413</v>
+        <v>0.8634462952613831</v>
       </c>
     </row>
     <row r="181">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8045546412467957</v>
+        <v>0.5039055347442627</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8730629682540894</v>
+        <v>0.9876377582550049</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7647756338119507</v>
+        <v>0.3897368907928467</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6134681701660156</v>
+        <v>0.986428439617157</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7480660676956177</v>
+        <v>0.8663612008094788</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8934857249259949</v>
+        <v>0.8783056139945984</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5843071341514587</v>
+        <v>0.9663853049278259</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4122144281864166</v>
+        <v>0.9769781827926636</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4752891361713409</v>
+        <v>0.8275283575057983</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8863704204559326</v>
+        <v>0.9085341691970825</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4794859290122986</v>
+        <v>0.541171133518219</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3798678517341614</v>
+        <v>0.9453502297401428</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8218430876731873</v>
+        <v>0.980774998664856</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3759119808673859</v>
+        <v>0.8215196132659912</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8531033396720886</v>
+        <v>0.4608989059925079</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8703188896179199</v>
+        <v>0.9909233450889587</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6508728861808777</v>
+        <v>0.9818383455276489</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4752891361713409</v>
+        <v>0.9242864847183228</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4844563007354736</v>
+        <v>0.9928454756736755</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8405776023864746</v>
+        <v>0.6171150803565979</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6103270053863525</v>
+        <v>0.9867831468582153</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.386337012052536</v>
+        <v>0.983586847782135</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6147732138633728</v>
+        <v>0.8522669672966003</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>SurroundingEnvironment</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.2700072228908539</v>
+        <v>0.3790153861045837</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7239340543746948</v>
+        <v>0.5410004258155823</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8831042051315308</v>
+        <v>0.9984022974967957</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7444813847541809</v>
+        <v>0.4932340979576111</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7605624794960022</v>
+        <v>0.9934201836585999</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8228508234024048</v>
+        <v>0.5105670690536499</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4338067471981049</v>
+        <v>0.9951518774032593</v>
       </c>
     </row>
   </sheetData>
